--- a/Exponenten_Sandpile.xlsx
+++ b/Exponenten_Sandpile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\3xpl0r3r\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB18BBD2-FD43-4ABE-B247-BEB4BD4852EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9C9C85A-9EC2-40E1-80A1-74D0A27E184B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{0E64A493-B3F3-4E61-B234-FDB1B1511829}"/>
   </bookViews>
@@ -165,9 +165,6 @@
     <t>$1.766\pm 0.012$ (sys) $^{0.09}_{0.4}$</t>
   </si>
   <si>
-    <t xml:space="preserve"> (sys) $^{0.12}_{0.14}$</t>
-  </si>
-  <si>
     <t>$1.2321\pm 0.0028$ (sys) $^{0.07}_{0.15}$</t>
   </si>
   <si>
@@ -274,6 +271,9 @@
   </si>
   <si>
     <t>$2.562\pm 0.004$ (sys) $^{0.6}_{0.7}$</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $1.250 \pm 0.04$ (sys) $^{0.12}_{0.14}$</t>
   </si>
 </sst>
 </file>
@@ -630,8 +630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{019B76A5-5C2C-48FC-A3B3-129821E86D55}">
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9:I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -832,16 +832,16 @@
         <v>42</v>
       </c>
       <c r="I7" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="K7" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="L7" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
@@ -863,37 +863,37 @@
         <v>20</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="J9" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="K9" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="L9" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
@@ -915,37 +915,37 @@
         <v>21</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="I11" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="J11" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="K11" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="K11" s="1" t="s">
+      <c r="L11" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
@@ -967,37 +967,37 @@
         <v>22</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="G13" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="H13" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="I13" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J13" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="K13" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="J13" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="K13" s="1" t="s">
+      <c r="L13" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
@@ -1016,11 +1016,78 @@
     </row>
   </sheetData>
   <mergeCells count="84">
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="K11:K12"/>
     <mergeCell ref="L13:L14"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="B13:B14"/>
@@ -1028,78 +1095,11 @@
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="E13:E14"/>
     <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K13:K14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
